--- a/src/test/resources/testDate.xlsx
+++ b/src/test/resources/testDate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -127,12 +127,25 @@
   </si>
   <si>
     <t>src/test/resources/testFiles/Screenshot (730).png</t>
+  </si>
+  <si>
+    <t>auto1766857419462@gmail.com</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>AutoUser</t>
+  </si>
+  <si>
+    <t>auto1766923583202@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -485,7 +498,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="23.140625" style="1"/>
+    <col min="1" max="16384" style="1" width="23.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27.75" customHeight="1">
@@ -612,18 +625,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.42578125"/>
+    <col min="2" max="2" customWidth="true" width="14.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>0</v>
       </c>
     </row>
@@ -643,10 +656,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -654,7 +667,7 @@
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>123456</v>
       </c>
     </row>
@@ -676,18 +689,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.140625"/>
+    <col min="2" max="2" customWidth="true" width="14.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>0</v>
       </c>
     </row>
@@ -695,10 +708,10 @@
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>123456</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>34</v>
       </c>
     </row>
@@ -721,15 +734,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -754,12 +767,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5703125"/>
+    <col min="2" max="2" customWidth="true" style="1" width="18.140625"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.28515625"/>
+    <col min="4" max="4" customWidth="true" style="1" width="23.0"/>
+    <col min="5" max="5" customWidth="true" style="1" width="22.85546875"/>
+    <col min="6" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
